--- a/Correct_Coffeemaker requirements -Natalia_Kliahina.xlsx
+++ b/Correct_Coffeemaker requirements -Natalia_Kliahina.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Номер</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Кавоварка комплектується сенсорним дисплеєм,об'ємом резервуара для води - 1 л, ємкістю 1 л для молока, місцем для фільтра для води, контейнером для кофі.</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -798,7 +801,9 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
